--- a/Code/Results/Cases/Case_3_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6910703834220442</v>
+        <v>0.2330464413454649</v>
       </c>
       <c r="C2">
-        <v>0.126118016639154</v>
+        <v>0.0387729706971669</v>
       </c>
       <c r="D2">
-        <v>0.04595164127223939</v>
+        <v>0.02753260113644274</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6314593018929386</v>
+        <v>0.7929435651509067</v>
       </c>
       <c r="G2">
-        <v>0.5337958913752203</v>
+        <v>0.6366448308179571</v>
       </c>
       <c r="H2">
-        <v>0.3863684891766042</v>
+        <v>0.7383547964717536</v>
       </c>
       <c r="I2">
-        <v>0.3552070171259203</v>
+        <v>0.5939797809872829</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7763209407313383</v>
+        <v>0.2460159790660441</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.782371089516033</v>
+        <v>0.8860030581400054</v>
       </c>
       <c r="N2">
-        <v>0.7409582024904395</v>
+        <v>1.527561663344734</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6009147269470816</v>
+        <v>0.2063519830744838</v>
       </c>
       <c r="C3">
-        <v>0.1103552461883908</v>
+        <v>0.03393210848970796</v>
       </c>
       <c r="D3">
-        <v>0.04238953004990975</v>
+        <v>0.02616648665432564</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5875903344608915</v>
+        <v>0.7866710901845266</v>
       </c>
       <c r="G3">
-        <v>0.4984964640395191</v>
+        <v>0.6317505978481393</v>
       </c>
       <c r="H3">
-        <v>0.3765377473233116</v>
+        <v>0.7401072477138513</v>
       </c>
       <c r="I3">
-        <v>0.3457984748390217</v>
+        <v>0.5952616649856566</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6756304080179376</v>
+        <v>0.2159192337892506</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.36895748840395</v>
+        <v>0.7889135443472952</v>
       </c>
       <c r="N3">
-        <v>0.7816092081545634</v>
+        <v>1.543899498318957</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5456312135539179</v>
+        <v>0.1899830193775642</v>
       </c>
       <c r="C4">
-        <v>0.1006928732727772</v>
+        <v>0.03094743649059239</v>
       </c>
       <c r="D4">
-        <v>0.04017918746829707</v>
+        <v>0.02531705957402153</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5618624046102738</v>
+        <v>0.7832948023896265</v>
       </c>
       <c r="G4">
-        <v>0.4779962786086145</v>
+        <v>0.6291609484237171</v>
       </c>
       <c r="H4">
-        <v>0.3711799277610766</v>
+        <v>0.7415132626150154</v>
       </c>
       <c r="I4">
-        <v>0.3407649053731916</v>
+        <v>0.596360926302772</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6138873037588155</v>
+        <v>0.1974393993125432</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.123849361575978</v>
+        <v>0.7298268186455203</v>
       </c>
       <c r="N4">
-        <v>0.8078106546423314</v>
+        <v>1.554481742577835</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5231139747945122</v>
+        <v>0.1833183264427021</v>
       </c>
       <c r="C5">
-        <v>0.09675763799552328</v>
+        <v>0.02972807408886524</v>
       </c>
       <c r="D5">
-        <v>0.03927286665756213</v>
+        <v>0.02496826440467359</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5516601600271116</v>
+        <v>0.7820382717250567</v>
       </c>
       <c r="G5">
-        <v>0.4699156075902664</v>
+        <v>0.628209890116679</v>
       </c>
       <c r="H5">
-        <v>0.3691579125830202</v>
+        <v>0.7421692041255312</v>
       </c>
       <c r="I5">
-        <v>0.3388894619750964</v>
+        <v>0.596887296287143</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5887384848365116</v>
+        <v>0.189908999884409</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.025788217806593</v>
+        <v>0.705874896074647</v>
       </c>
       <c r="N5">
-        <v>0.8187894872281554</v>
+        <v>1.558932408031698</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5193754841129135</v>
+        <v>0.1822120201958342</v>
       </c>
       <c r="C6">
-        <v>0.09610428113343517</v>
+        <v>0.02952541432942724</v>
       </c>
       <c r="D6">
-        <v>0.03912204165831668</v>
+        <v>0.02491018812768075</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5499825211291665</v>
+        <v>0.7818368298440248</v>
       </c>
       <c r="G6">
-        <v>0.4685897190814359</v>
+        <v>0.628058257399033</v>
       </c>
       <c r="H6">
-        <v>0.3688316459011958</v>
+        <v>0.7422831343887424</v>
       </c>
       <c r="I6">
-        <v>0.3385883526901949</v>
+        <v>0.5969794329700271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5845630257127823</v>
+        <v>0.188658610548913</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.009605396617474</v>
+        <v>0.701905157525033</v>
       </c>
       <c r="N6">
-        <v>0.8206304270860052</v>
+        <v>1.559679786457096</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.545327501729389</v>
+        <v>0.189893113045116</v>
       </c>
       <c r="C7">
-        <v>0.1006397944579334</v>
+        <v>0.03093100420039718</v>
       </c>
       <c r="D7">
-        <v>0.04016698684197451</v>
+        <v>0.02531236628364297</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5617236987833181</v>
+        <v>0.7832773733586436</v>
       </c>
       <c r="G7">
-        <v>0.4778862208421089</v>
+        <v>0.6291477003278203</v>
       </c>
       <c r="H7">
-        <v>0.3711520166037019</v>
+        <v>0.7415217729004269</v>
       </c>
       <c r="I7">
-        <v>0.3407389148819746</v>
+        <v>0.596367707745415</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6135481003795178</v>
+        <v>0.1973378400862345</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.122519950377438</v>
+        <v>0.7295032907261856</v>
       </c>
       <c r="N7">
-        <v>0.8079575117131768</v>
+        <v>1.554541206024194</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6599653965712662</v>
+        <v>0.2238379383258007</v>
       </c>
       <c r="C8">
-        <v>0.1206785970146598</v>
+        <v>0.03710642065701109</v>
       </c>
       <c r="D8">
-        <v>0.04472839763044334</v>
+        <v>0.02706378552613842</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6160690664784028</v>
+        <v>0.7906821462086455</v>
       </c>
       <c r="G8">
-        <v>0.5213673280743905</v>
+        <v>0.6348709417889609</v>
       </c>
       <c r="H8">
-        <v>0.3828322998688378</v>
+        <v>0.7388905462999134</v>
       </c>
       <c r="I8">
-        <v>0.3518017013528301</v>
+        <v>0.5943569273551681</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7415807854280843</v>
+        <v>0.2356388935470193</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.637772254687349</v>
+        <v>0.8524136059821643</v>
       </c>
       <c r="N8">
-        <v>0.7547103424340165</v>
+        <v>1.533080536983405</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8856768097493273</v>
+        <v>0.290561330595267</v>
       </c>
       <c r="C9">
-        <v>0.1601858509085901</v>
+        <v>0.04911778533949018</v>
       </c>
       <c r="D9">
-        <v>0.05347602898591219</v>
+        <v>0.03041300423755899</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7332961831141063</v>
+        <v>0.8089793609667169</v>
       </c>
       <c r="G9">
-        <v>0.6170341659809964</v>
+        <v>0.6494018544297262</v>
       </c>
       <c r="H9">
-        <v>0.4115749418099881</v>
+        <v>0.7363499345965749</v>
       </c>
       <c r="I9">
-        <v>0.3799458521981123</v>
+        <v>0.5928953752791841</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9936988149015349</v>
+        <v>0.3107324393432691</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.737757572366803</v>
+        <v>1.097906240168285</v>
       </c>
       <c r="N9">
-        <v>0.660660682339433</v>
+        <v>1.495373463006807</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.052538021680988</v>
+        <v>0.3396661954907927</v>
       </c>
       <c r="C10">
-        <v>0.1894614393498699</v>
+        <v>0.05788255978043821</v>
       </c>
       <c r="D10">
-        <v>0.05975877686741171</v>
+        <v>0.03282054332093054</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.827590342835407</v>
+        <v>0.8247374550780933</v>
       </c>
       <c r="G10">
-        <v>0.6953611704915659</v>
+        <v>0.6621122049120345</v>
       </c>
       <c r="H10">
-        <v>0.4369564293561439</v>
+        <v>0.7360821516836609</v>
       </c>
       <c r="I10">
-        <v>0.4054157051435325</v>
+        <v>0.5933416391356232</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.180144071637443</v>
+        <v>0.3658836301971178</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.63621691092591</v>
+        <v>1.28141279824986</v>
       </c>
       <c r="N10">
-        <v>0.5986618628762912</v>
+        <v>1.470347812430042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.128773789113922</v>
+        <v>0.3620208745277012</v>
       </c>
       <c r="C11">
-        <v>0.2028601656640774</v>
+        <v>0.06185693635855216</v>
       </c>
       <c r="D11">
-        <v>0.0625778331816349</v>
+        <v>0.03390403039008305</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8726933710322982</v>
+        <v>0.8324119115168003</v>
       </c>
       <c r="G11">
-        <v>0.733183627326369</v>
+        <v>0.6683403044774252</v>
       </c>
       <c r="H11">
-        <v>0.4496101209368391</v>
+        <v>0.7363080312268835</v>
       </c>
       <c r="I11">
-        <v>0.418266532000473</v>
+        <v>0.5938763653532533</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.265349833763111</v>
+        <v>0.3909669490319061</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.075526935936011</v>
+        <v>1.365671473306506</v>
       </c>
       <c r="N11">
-        <v>0.5721918475889183</v>
+        <v>1.459546479170413</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.157697197959664</v>
+        <v>0.3704880823779888</v>
       </c>
       <c r="C12">
-        <v>0.2079475868556102</v>
+        <v>0.06336008013741434</v>
       </c>
       <c r="D12">
-        <v>0.06363877156822184</v>
+        <v>0.0343126102788105</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8901325641594582</v>
+        <v>0.8353909834432756</v>
       </c>
       <c r="G12">
-        <v>0.7478648381807744</v>
+        <v>0.6707631612211316</v>
       </c>
       <c r="H12">
-        <v>0.4545785609777937</v>
+        <v>0.7364435956806403</v>
       </c>
       <c r="I12">
-        <v>0.4233365763864612</v>
+        <v>0.5941266750588667</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.297680298406391</v>
+        <v>0.4004642990298635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.24753499990004</v>
+        <v>1.397697847486825</v>
       </c>
       <c r="N12">
-        <v>0.5624358075826592</v>
+        <v>1.455540332266516</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.151465492986347</v>
+        <v>0.3686644363990297</v>
       </c>
       <c r="C13">
-        <v>0.2068512851015356</v>
+        <v>0.06303643473462728</v>
       </c>
       <c r="D13">
-        <v>0.06341059093993096</v>
+        <v>0.03422469193850475</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8863599828889051</v>
+        <v>0.834746141264759</v>
       </c>
       <c r="G13">
-        <v>0.7446862527228149</v>
+        <v>0.6702384867869853</v>
       </c>
       <c r="H13">
-        <v>0.4535003504274329</v>
+        <v>0.7364121739022522</v>
       </c>
       <c r="I13">
-        <v>0.4222352049786338</v>
+        <v>0.5940706376296561</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.290714342152114</v>
+        <v>0.3984189327690046</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.210214683708031</v>
+        <v>1.390794966137179</v>
       </c>
       <c r="N13">
-        <v>0.5645247338750963</v>
+        <v>1.456399383929941</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.131152203769716</v>
+        <v>0.3627174395897441</v>
       </c>
       <c r="C14">
-        <v>0.2032784274822887</v>
+        <v>0.0619806384854229</v>
       </c>
       <c r="D14">
-        <v>0.06266525573055048</v>
+        <v>0.03393767900188038</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8741206307356606</v>
+        <v>0.832655539190327</v>
       </c>
       <c r="G14">
-        <v>0.7343839957297718</v>
+        <v>0.6685383419641511</v>
       </c>
       <c r="H14">
-        <v>0.4500152254709064</v>
+        <v>0.7363181813643394</v>
       </c>
       <c r="I14">
-        <v>0.4186794270039158</v>
+        <v>0.5938959993978656</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.268008334203387</v>
+        <v>0.391748327275991</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.089556393290223</v>
+        <v>1.368303866746032</v>
       </c>
       <c r="N14">
-        <v>0.5713837383308942</v>
+        <v>1.459215204418889</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.118717032719474</v>
+        <v>0.3590749773401285</v>
       </c>
       <c r="C15">
-        <v>0.2010917769497098</v>
+        <v>0.06133368881623369</v>
       </c>
       <c r="D15">
-        <v>0.06220782571177352</v>
+        <v>0.03376165133837361</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8666718752703986</v>
+        <v>0.831384486314974</v>
       </c>
       <c r="G15">
-        <v>0.7281216905084591</v>
+        <v>0.6675053501588764</v>
       </c>
       <c r="H15">
-        <v>0.4479040684509386</v>
+        <v>0.7362671243778038</v>
       </c>
       <c r="I15">
-        <v>0.4165286487380158</v>
+        <v>0.5937952596601335</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.254108939038588</v>
+        <v>0.3876622258820248</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.016429026555812</v>
+        <v>1.354543190385343</v>
       </c>
       <c r="N15">
-        <v>0.5756204973673889</v>
+        <v>1.460950933574424</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.047563100831923</v>
+        <v>0.3382055637808037</v>
       </c>
       <c r="C16">
-        <v>0.188587603515245</v>
+        <v>0.05762256544500133</v>
       </c>
       <c r="D16">
-        <v>0.05957368414907194</v>
+        <v>0.03274949672135108</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8246906430574086</v>
+        <v>0.8242461070752256</v>
       </c>
       <c r="G16">
-        <v>0.6929370441616101</v>
+        <v>0.6617141829487707</v>
       </c>
       <c r="H16">
-        <v>0.4361532068456171</v>
+        <v>0.7360743890251626</v>
       </c>
       <c r="I16">
-        <v>0.4046031125586467</v>
+        <v>0.5933133787453428</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.174584304560852</v>
+        <v>0.3642442363190241</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.608221639278597</v>
+        <v>1.275922614339521</v>
       </c>
       <c r="N16">
-        <v>0.6004281477270013</v>
+        <v>1.471065457264878</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.004002254820733</v>
+        <v>0.3254068183853747</v>
       </c>
       <c r="C17">
-        <v>0.1809389050821579</v>
+        <v>0.05534262047177663</v>
       </c>
       <c r="D17">
-        <v>0.05794713648707983</v>
+        <v>0.03212555192219924</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7995300932518887</v>
+        <v>0.819996657446012</v>
       </c>
       <c r="G17">
-        <v>0.6719425078511136</v>
+        <v>0.6582759315775633</v>
       </c>
       <c r="H17">
-        <v>0.4292397912487758</v>
+        <v>0.7360452265407673</v>
       </c>
       <c r="I17">
-        <v>0.3976255919282892</v>
+        <v>0.5931028061808377</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.125905090891081</v>
+        <v>0.3498764290503118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.366420443531737</v>
+        <v>1.227896433051924</v>
       </c>
       <c r="N17">
-        <v>0.6161033062272807</v>
+        <v>1.477419879673803</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.978977849025739</v>
+        <v>0.3180469086486539</v>
       </c>
       <c r="C18">
-        <v>0.176547099299512</v>
+        <v>0.05403005695404772</v>
       </c>
       <c r="D18">
-        <v>0.0570079913065058</v>
+        <v>0.03176557446042239</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7852633961581859</v>
+        <v>0.8176001059694329</v>
       </c>
       <c r="G18">
-        <v>0.6600702765407931</v>
+        <v>0.6563403133058472</v>
       </c>
       <c r="H18">
-        <v>0.4253664447681018</v>
+        <v>0.7360611778693738</v>
       </c>
       <c r="I18">
-        <v>0.3937298391493016</v>
+        <v>0.5930129060799132</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.097942402736066</v>
+        <v>0.3416119779160738</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.230130618991012</v>
+        <v>1.200346078842841</v>
       </c>
       <c r="N18">
-        <v>0.6252812158836178</v>
+        <v>1.481129630889122</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.970510047426643</v>
+        <v>0.3155552554239307</v>
       </c>
       <c r="C19">
-        <v>0.1750613397026513</v>
+        <v>0.05358544043170355</v>
       </c>
       <c r="D19">
-        <v>0.05668941973117114</v>
+        <v>0.03164350406525784</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7804669623632208</v>
+        <v>0.8167968487747572</v>
       </c>
       <c r="G19">
-        <v>0.6560842364201704</v>
+        <v>0.6556921471576374</v>
       </c>
       <c r="H19">
-        <v>0.4240722043435881</v>
+        <v>0.7360721983211818</v>
       </c>
       <c r="I19">
-        <v>0.3924303768706423</v>
+        <v>0.5929878251446183</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.08848067352875</v>
+        <v>0.3388137086698748</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.184431438566477</v>
+        <v>1.191030329970118</v>
       </c>
       <c r="N19">
-        <v>0.628415988775977</v>
+        <v>1.482395102708288</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.008636155643558</v>
+        <v>0.3267691051202348</v>
       </c>
       <c r="C20">
-        <v>0.1817523288416965</v>
+        <v>0.05558544887107075</v>
       </c>
       <c r="D20">
-        <v>0.05812066370666713</v>
+        <v>0.03219208605933943</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8021869766802325</v>
+        <v>0.8204440890426667</v>
       </c>
       <c r="G20">
-        <v>0.6741560805074016</v>
+        <v>0.6586375933703437</v>
       </c>
       <c r="H20">
-        <v>0.4299649501683405</v>
+        <v>0.736044943826883</v>
       </c>
       <c r="I20">
-        <v>0.3983560488327385</v>
+        <v>0.5931219904252742</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.131083252552031</v>
+        <v>0.3514059580768958</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.391864114291494</v>
+        <v>1.233001291673361</v>
       </c>
       <c r="N20">
-        <v>0.6144177683946026</v>
+        <v>1.476737761397558</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.137117175437169</v>
+        <v>0.3644641663908601</v>
       </c>
       <c r="C21">
-        <v>0.2043274782299704</v>
+        <v>0.06229080233795514</v>
       </c>
       <c r="D21">
-        <v>0.06288436656735286</v>
+        <v>0.03402202838058344</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8777054951712842</v>
+        <v>0.8332676193596882</v>
       </c>
       <c r="G21">
-        <v>0.7373999009226821</v>
+        <v>0.6690359655220561</v>
       </c>
       <c r="H21">
-        <v>0.4510339415773785</v>
+        <v>0.7363444312330074</v>
       </c>
       <c r="I21">
-        <v>0.4197181245897781</v>
+        <v>0.5939459960823541</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.2746758142614</v>
+        <v>0.393707680484539</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.124831467520693</v>
+        <v>1.374906747997002</v>
       </c>
       <c r="N21">
-        <v>0.56936166557864</v>
+        <v>1.458385845625997</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.221407593282891</v>
+        <v>0.3891113930910706</v>
       </c>
       <c r="C22">
-        <v>0.2191617400540906</v>
+        <v>0.06666224522112429</v>
       </c>
       <c r="D22">
-        <v>0.06595867732357874</v>
+        <v>0.03520800262607082</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9291823269736739</v>
+        <v>0.8420736561632509</v>
       </c>
       <c r="G22">
-        <v>0.7808498468126999</v>
+        <v>0.6762074606475466</v>
       </c>
       <c r="H22">
-        <v>0.4658441674337013</v>
+        <v>0.7368317848238775</v>
       </c>
       <c r="I22">
-        <v>0.434879764446066</v>
+        <v>0.5947633226110725</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.368903149503353</v>
+        <v>0.4213473602574425</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.637686312192116</v>
+        <v>1.468349836623418</v>
       </c>
       <c r="N22">
-        <v>0.5414843842801318</v>
+        <v>1.446882032905187</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.176388779750226</v>
+        <v>0.3759558053732803</v>
       </c>
       <c r="C23">
-        <v>0.2112364971478655</v>
+        <v>0.06433013092815543</v>
       </c>
       <c r="D23">
-        <v>0.06432184317279166</v>
+        <v>0.0345759502087688</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9014983244090331</v>
+        <v>0.8373347579000523</v>
       </c>
       <c r="G23">
-        <v>0.7574497409222261</v>
+        <v>0.6723454478350845</v>
       </c>
       <c r="H23">
-        <v>0.4578379811838857</v>
+        <v>0.7365449811616571</v>
       </c>
       <c r="I23">
-        <v>0.4266696893939255</v>
+        <v>0.5943015506327285</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.318574820898334</v>
+        <v>0.4065963123435949</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.360353103270583</v>
+        <v>1.418411058880139</v>
       </c>
       <c r="N23">
-        <v>0.5562128798322235</v>
+        <v>1.45297689320634</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.006541109508589</v>
+        <v>0.3261532206776678</v>
       </c>
       <c r="C24">
-        <v>0.1813845628771986</v>
+        <v>0.05547567173474022</v>
       </c>
       <c r="D24">
-        <v>0.05804222450746721</v>
+        <v>0.03216200990868856</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8009851846848619</v>
+        <v>0.82024166034968</v>
       </c>
       <c r="G24">
-        <v>0.6731547113800218</v>
+        <v>0.6584739581439436</v>
       </c>
       <c r="H24">
-        <v>0.4296367916810908</v>
+        <v>0.7360449697374776</v>
       </c>
       <c r="I24">
-        <v>0.3980254504411249</v>
+        <v>0.5931132201782177</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.128742132707089</v>
+        <v>0.35071447107822</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.380352632401866</v>
+        <v>1.230693197072497</v>
       </c>
       <c r="N24">
-        <v>0.6151792841944754</v>
+        <v>1.477045971076102</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.824469706099876</v>
+        <v>0.2724953414233653</v>
       </c>
       <c r="C25">
-        <v>0.1494631434201494</v>
+        <v>0.04587893463359194</v>
       </c>
       <c r="D25">
-        <v>0.05113276381518261</v>
+        <v>0.02951620108433417</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7002810895092608</v>
+        <v>0.8036238562255562</v>
       </c>
       <c r="G25">
-        <v>0.5898767376255591</v>
+        <v>0.6451148922903371</v>
       </c>
       <c r="H25">
-        <v>0.4031060753475657</v>
+        <v>0.736756624674868</v>
       </c>
       <c r="I25">
-        <v>0.3715586993692881</v>
+        <v>0.5930243520121223</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9253230275343469</v>
+        <v>0.2904203632715223</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.427378316741425</v>
+        <v>1.030972969002676</v>
       </c>
       <c r="N25">
-        <v>0.6849175642273835</v>
+        <v>1.505104673851989</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2330464413454649</v>
+        <v>0.691070383422101</v>
       </c>
       <c r="C2">
-        <v>0.0387729706971669</v>
+        <v>0.126118016639353</v>
       </c>
       <c r="D2">
-        <v>0.02753260113644274</v>
+        <v>0.04595164127234597</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7929435651509067</v>
+        <v>0.6314593018929386</v>
       </c>
       <c r="G2">
-        <v>0.6366448308179571</v>
+        <v>0.5337958913752061</v>
       </c>
       <c r="H2">
-        <v>0.7383547964717536</v>
+        <v>0.3863684891765899</v>
       </c>
       <c r="I2">
-        <v>0.5939797809872829</v>
+        <v>0.3552070171259274</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2460159790660441</v>
+        <v>0.7763209407313241</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8860030581400054</v>
+        <v>2.782371089516033</v>
       </c>
       <c r="N2">
-        <v>1.527561663344734</v>
+        <v>0.7409582024904964</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2063519830744838</v>
+        <v>0.6009147269469395</v>
       </c>
       <c r="C3">
-        <v>0.03393210848970796</v>
+        <v>0.110355246188405</v>
       </c>
       <c r="D3">
-        <v>0.02616648665432564</v>
+        <v>0.04238953005002344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7866710901845266</v>
+        <v>0.5875903344608773</v>
       </c>
       <c r="G3">
-        <v>0.6317505978481393</v>
+        <v>0.4984964640395049</v>
       </c>
       <c r="H3">
-        <v>0.7401072477138513</v>
+        <v>0.37653774732334</v>
       </c>
       <c r="I3">
-        <v>0.5952616649856566</v>
+        <v>0.3457984748390395</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2159192337892506</v>
+        <v>0.6756304080179945</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7889135443472952</v>
+        <v>2.368957488403964</v>
       </c>
       <c r="N3">
-        <v>1.543899498318957</v>
+        <v>0.7816092081545278</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1899830193775642</v>
+        <v>0.5456312135539463</v>
       </c>
       <c r="C4">
-        <v>0.03094743649059239</v>
+        <v>0.100692873272763</v>
       </c>
       <c r="D4">
-        <v>0.02531705957402153</v>
+        <v>0.04017918746818339</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7832948023896265</v>
+        <v>0.5618624046102667</v>
       </c>
       <c r="G4">
-        <v>0.6291609484237171</v>
+        <v>0.4779962786086429</v>
       </c>
       <c r="H4">
-        <v>0.7415132626150154</v>
+        <v>0.3711799277610623</v>
       </c>
       <c r="I4">
-        <v>0.596360926302772</v>
+        <v>0.340764905373188</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1974393993125432</v>
+        <v>0.6138873037587587</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7298268186455203</v>
+        <v>2.123849361575992</v>
       </c>
       <c r="N4">
-        <v>1.554481742577835</v>
+        <v>0.8078106546423811</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1833183264427021</v>
+        <v>0.5231139747944837</v>
       </c>
       <c r="C5">
-        <v>0.02972807408886524</v>
+        <v>0.09675763799529591</v>
       </c>
       <c r="D5">
-        <v>0.02496826440467359</v>
+        <v>0.03927286665768648</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7820382717250567</v>
+        <v>0.5516601600270974</v>
       </c>
       <c r="G5">
-        <v>0.628209890116679</v>
+        <v>0.4699156075903801</v>
       </c>
       <c r="H5">
-        <v>0.7421692041255312</v>
+        <v>0.3691579125831339</v>
       </c>
       <c r="I5">
-        <v>0.596887296287143</v>
+        <v>0.3388894619751106</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.189908999884409</v>
+        <v>0.5887384848365116</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.705874896074647</v>
+        <v>2.025788217806578</v>
       </c>
       <c r="N5">
-        <v>1.558932408031698</v>
+        <v>0.8187894872282122</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1822120201958342</v>
+        <v>0.519375484112885</v>
       </c>
       <c r="C6">
-        <v>0.02952541432942724</v>
+        <v>0.096104281133222</v>
       </c>
       <c r="D6">
-        <v>0.02491018812768075</v>
+        <v>0.03912204165830957</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7818368298440248</v>
+        <v>0.5499825211291665</v>
       </c>
       <c r="G6">
-        <v>0.628058257399033</v>
+        <v>0.4685897190813932</v>
       </c>
       <c r="H6">
-        <v>0.7422831343887424</v>
+        <v>0.3688316459010821</v>
       </c>
       <c r="I6">
-        <v>0.5969794329700271</v>
+        <v>0.3385883526901949</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.188658610548913</v>
+        <v>0.5845630257128533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.701905157525033</v>
+        <v>2.009605396617488</v>
       </c>
       <c r="N6">
-        <v>1.559679786457096</v>
+        <v>0.8206304270859341</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.189893113045116</v>
+        <v>0.5453275017293606</v>
       </c>
       <c r="C7">
-        <v>0.03093100420039718</v>
+        <v>0.100639794457706</v>
       </c>
       <c r="D7">
-        <v>0.02531236628364297</v>
+        <v>0.04016698684208109</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7832773733586436</v>
+        <v>0.5617236987833252</v>
       </c>
       <c r="G7">
-        <v>0.6291477003278203</v>
+        <v>0.4778862208421373</v>
       </c>
       <c r="H7">
-        <v>0.7415217729004269</v>
+        <v>0.3711520166036877</v>
       </c>
       <c r="I7">
-        <v>0.596367707745415</v>
+        <v>0.3407389148819782</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1973378400862345</v>
+        <v>0.613548100379532</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7295032907261856</v>
+        <v>2.122519950377423</v>
       </c>
       <c r="N7">
-        <v>1.554541206024194</v>
+        <v>0.80795751171323</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2238379383258007</v>
+        <v>0.6599653965714083</v>
       </c>
       <c r="C8">
-        <v>0.03710642065701109</v>
+        <v>0.1206785970147308</v>
       </c>
       <c r="D8">
-        <v>0.02706378552613842</v>
+        <v>0.04472839763045044</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7906821462086455</v>
+        <v>0.6160690664784028</v>
       </c>
       <c r="G8">
-        <v>0.6348709417889609</v>
+        <v>0.5213673280743336</v>
       </c>
       <c r="H8">
-        <v>0.7388905462999134</v>
+        <v>0.3828322998689515</v>
       </c>
       <c r="I8">
-        <v>0.5943569273551681</v>
+        <v>0.3518017013528087</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2356388935470193</v>
+        <v>0.7415807854280274</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8524136059821643</v>
+        <v>2.637772254687363</v>
       </c>
       <c r="N8">
-        <v>1.533080536983405</v>
+        <v>0.7547103424340307</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.290561330595267</v>
+        <v>0.8856768097493557</v>
       </c>
       <c r="C9">
-        <v>0.04911778533949018</v>
+        <v>0.1601858509085616</v>
       </c>
       <c r="D9">
-        <v>0.03041300423755899</v>
+        <v>0.05347602898567061</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8089793609667169</v>
+        <v>0.7332961831140921</v>
       </c>
       <c r="G9">
-        <v>0.6494018544297262</v>
+        <v>0.6170341659810248</v>
       </c>
       <c r="H9">
-        <v>0.7363499345965749</v>
+        <v>0.4115749418099739</v>
       </c>
       <c r="I9">
-        <v>0.5928953752791841</v>
+        <v>0.3799458521981123</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3107324393432691</v>
+        <v>0.9936988149013928</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.097906240168285</v>
+        <v>3.737757572366846</v>
       </c>
       <c r="N9">
-        <v>1.495373463006807</v>
+        <v>0.6606606823394898</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3396661954907927</v>
+        <v>1.052538021680874</v>
       </c>
       <c r="C10">
-        <v>0.05788255978043821</v>
+        <v>0.1894614393498699</v>
       </c>
       <c r="D10">
-        <v>0.03282054332093054</v>
+        <v>0.05975877686741882</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8247374550780933</v>
+        <v>0.827590342835407</v>
       </c>
       <c r="G10">
-        <v>0.6621122049120345</v>
+        <v>0.6953611704916227</v>
       </c>
       <c r="H10">
-        <v>0.7360821516836609</v>
+        <v>0.4369564293562576</v>
       </c>
       <c r="I10">
-        <v>0.5933416391356232</v>
+        <v>0.4054157051435041</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3658836301971178</v>
+        <v>1.180144071637386</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.28141279824986</v>
+        <v>4.636216910925853</v>
       </c>
       <c r="N10">
-        <v>1.470347812430042</v>
+        <v>0.5986618628763551</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3620208745277012</v>
+        <v>1.12877378911395</v>
       </c>
       <c r="C11">
-        <v>0.06185693635855216</v>
+        <v>0.2028601656637221</v>
       </c>
       <c r="D11">
-        <v>0.03390403039008305</v>
+        <v>0.06257783318162069</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8324119115168003</v>
+        <v>0.8726933710322839</v>
       </c>
       <c r="G11">
-        <v>0.6683403044774252</v>
+        <v>0.7331836273263974</v>
       </c>
       <c r="H11">
-        <v>0.7363080312268835</v>
+        <v>0.4496101209369385</v>
       </c>
       <c r="I11">
-        <v>0.5938763653532533</v>
+        <v>0.4182665320004659</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3909669490319061</v>
+        <v>1.265349833763082</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.365671473306506</v>
+        <v>5.075526935935969</v>
       </c>
       <c r="N11">
-        <v>1.459546479170413</v>
+        <v>0.5721918475889822</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3704880823779888</v>
+        <v>1.157697197959521</v>
       </c>
       <c r="C12">
-        <v>0.06336008013741434</v>
+        <v>0.2079475868554965</v>
       </c>
       <c r="D12">
-        <v>0.0343126102788105</v>
+        <v>0.06363877156828579</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8353909834432756</v>
+        <v>0.8901325641594724</v>
       </c>
       <c r="G12">
-        <v>0.6707631612211316</v>
+        <v>0.7478648381808455</v>
       </c>
       <c r="H12">
-        <v>0.7364435956806403</v>
+        <v>0.454578560977879</v>
       </c>
       <c r="I12">
-        <v>0.5941266750588667</v>
+        <v>0.4233365763864683</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4004642990298635</v>
+        <v>1.297680298406448</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.397697847486825</v>
+        <v>5.247534999900068</v>
       </c>
       <c r="N12">
-        <v>1.455540332266516</v>
+        <v>0.5624358075827089</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3686644363990297</v>
+        <v>1.151465492986262</v>
       </c>
       <c r="C13">
-        <v>0.06303643473462728</v>
+        <v>0.2068512851013651</v>
       </c>
       <c r="D13">
-        <v>0.03422469193850475</v>
+        <v>0.06341059093982437</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.834746141264759</v>
+        <v>0.8863599828888908</v>
       </c>
       <c r="G13">
-        <v>0.6702384867869853</v>
+        <v>0.7446862527228433</v>
       </c>
       <c r="H13">
-        <v>0.7364121739022522</v>
+        <v>0.4535003504274329</v>
       </c>
       <c r="I13">
-        <v>0.5940706376296561</v>
+        <v>0.4222352049786409</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3984189327690046</v>
+        <v>1.290714342152171</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.390794966137179</v>
+        <v>5.210214683708003</v>
       </c>
       <c r="N13">
-        <v>1.456399383929941</v>
+        <v>0.5645247338751602</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3627174395897441</v>
+        <v>1.131152203769631</v>
       </c>
       <c r="C14">
-        <v>0.0619806384854229</v>
+        <v>0.2032784274820472</v>
       </c>
       <c r="D14">
-        <v>0.03393767900188038</v>
+        <v>0.06266525573047943</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.832655539190327</v>
+        <v>0.8741206307356606</v>
       </c>
       <c r="G14">
-        <v>0.6685383419641511</v>
+        <v>0.7343839957298002</v>
       </c>
       <c r="H14">
-        <v>0.7363181813643394</v>
+        <v>0.4500152254709349</v>
       </c>
       <c r="I14">
-        <v>0.5938959993978656</v>
+        <v>0.4186794270039371</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.391748327275991</v>
+        <v>1.268008334203387</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.368303866746032</v>
+        <v>5.089556393290209</v>
       </c>
       <c r="N14">
-        <v>1.459215204418889</v>
+        <v>0.57138373833088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3590749773401285</v>
+        <v>1.118717032719474</v>
       </c>
       <c r="C15">
-        <v>0.06133368881623369</v>
+        <v>0.2010917769494824</v>
       </c>
       <c r="D15">
-        <v>0.03376165133837361</v>
+        <v>0.06220782571183037</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.831384486314974</v>
+        <v>0.8666718752703986</v>
       </c>
       <c r="G15">
-        <v>0.6675053501588764</v>
+        <v>0.7281216905085017</v>
       </c>
       <c r="H15">
-        <v>0.7362671243778038</v>
+        <v>0.4479040684509386</v>
       </c>
       <c r="I15">
-        <v>0.5937952596601335</v>
+        <v>0.4165286487380158</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3876622258820248</v>
+        <v>1.254108939038474</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.354543190385343</v>
+        <v>5.016429026555798</v>
       </c>
       <c r="N15">
-        <v>1.460950933574424</v>
+        <v>0.5756204973674386</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3382055637808037</v>
+        <v>1.047563100832122</v>
       </c>
       <c r="C16">
-        <v>0.05762256544500133</v>
+        <v>0.1885876035148897</v>
       </c>
       <c r="D16">
-        <v>0.03274949672135108</v>
+        <v>0.05957368414913589</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8242461070752256</v>
+        <v>0.8246906430573944</v>
       </c>
       <c r="G16">
-        <v>0.6617141829487707</v>
+        <v>0.6929370441614964</v>
       </c>
       <c r="H16">
-        <v>0.7360743890251626</v>
+        <v>0.4361532068457308</v>
       </c>
       <c r="I16">
-        <v>0.5933133787453428</v>
+        <v>0.4046031125586467</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3642442363190241</v>
+        <v>1.174584304560824</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.275922614339521</v>
+        <v>4.608221639278611</v>
       </c>
       <c r="N16">
-        <v>1.471065457264878</v>
+        <v>0.600428147726987</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3254068183853747</v>
+        <v>1.00400225482079</v>
       </c>
       <c r="C17">
-        <v>0.05534262047177663</v>
+        <v>0.180938905082229</v>
       </c>
       <c r="D17">
-        <v>0.03212555192219924</v>
+        <v>0.05794713648702299</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.819996657446012</v>
+        <v>0.7995300932519172</v>
       </c>
       <c r="G17">
-        <v>0.6582759315775633</v>
+        <v>0.6719425078511421</v>
       </c>
       <c r="H17">
-        <v>0.7360452265407673</v>
+        <v>0.4292397912487758</v>
       </c>
       <c r="I17">
-        <v>0.5931028061808377</v>
+        <v>0.3976255919282892</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3498764290503118</v>
+        <v>1.125905090891052</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.227896433051924</v>
+        <v>4.366420443531737</v>
       </c>
       <c r="N17">
-        <v>1.477419879673803</v>
+        <v>0.6161033062273304</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3180469086486539</v>
+        <v>0.9789778490257675</v>
       </c>
       <c r="C18">
-        <v>0.05403005695404772</v>
+        <v>0.1765470992995972</v>
       </c>
       <c r="D18">
-        <v>0.03176557446042239</v>
+        <v>0.05700799130662659</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8176001059694329</v>
+        <v>0.7852633961582001</v>
       </c>
       <c r="G18">
-        <v>0.6563403133058472</v>
+        <v>0.6600702765407931</v>
       </c>
       <c r="H18">
-        <v>0.7360611778693738</v>
+        <v>0.4253664447680876</v>
       </c>
       <c r="I18">
-        <v>0.5930129060799132</v>
+        <v>0.3937298391492945</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3416119779160738</v>
+        <v>1.097942402736038</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.200346078842841</v>
+        <v>4.230130618990998</v>
       </c>
       <c r="N18">
-        <v>1.481129630889122</v>
+        <v>0.6252812158836321</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3155552554239307</v>
+        <v>0.9705100474265294</v>
       </c>
       <c r="C19">
-        <v>0.05358544043170355</v>
+        <v>0.1750613397025518</v>
       </c>
       <c r="D19">
-        <v>0.03164350406525784</v>
+        <v>0.05668941973117114</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8167968487747572</v>
+        <v>0.7804669623632208</v>
       </c>
       <c r="G19">
-        <v>0.6556921471576374</v>
+        <v>0.6560842364201562</v>
       </c>
       <c r="H19">
-        <v>0.7360721983211818</v>
+        <v>0.4240722043435596</v>
       </c>
       <c r="I19">
-        <v>0.5929878251446183</v>
+        <v>0.3924303768706352</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3388137086698748</v>
+        <v>1.088480673528721</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.191030329970118</v>
+        <v>4.184431438566506</v>
       </c>
       <c r="N19">
-        <v>1.482395102708288</v>
+        <v>0.6284159887759699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3267691051202348</v>
+        <v>1.008636155643671</v>
       </c>
       <c r="C20">
-        <v>0.05558544887107075</v>
+        <v>0.1817523288417107</v>
       </c>
       <c r="D20">
-        <v>0.03219208605933943</v>
+        <v>0.05812066370683056</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8204440890426667</v>
+        <v>0.8021869766802325</v>
       </c>
       <c r="G20">
-        <v>0.6586375933703437</v>
+        <v>0.6741560805075011</v>
       </c>
       <c r="H20">
-        <v>0.736044943826883</v>
+        <v>0.4299649501684542</v>
       </c>
       <c r="I20">
-        <v>0.5931219904252742</v>
+        <v>0.3983560488327385</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3514059580768958</v>
+        <v>1.131083252552088</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.233001291673361</v>
+        <v>4.391864114291479</v>
       </c>
       <c r="N20">
-        <v>1.476737761397558</v>
+        <v>0.6144177683946452</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3644641663908601</v>
+        <v>1.137117175437169</v>
       </c>
       <c r="C21">
-        <v>0.06229080233795514</v>
+        <v>0.2043274782299704</v>
       </c>
       <c r="D21">
-        <v>0.03402202838058344</v>
+        <v>0.06288436656735286</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8332676193596882</v>
+        <v>0.8777054951712984</v>
       </c>
       <c r="G21">
-        <v>0.6690359655220561</v>
+        <v>0.7373999009226111</v>
       </c>
       <c r="H21">
-        <v>0.7363444312330074</v>
+        <v>0.451033941577478</v>
       </c>
       <c r="I21">
-        <v>0.5939459960823541</v>
+        <v>0.4197181245897781</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.393707680484539</v>
+        <v>1.274675814261258</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.374906747997002</v>
+        <v>5.124831467520735</v>
       </c>
       <c r="N21">
-        <v>1.458385845625997</v>
+        <v>0.5693616655785618</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3891113930910706</v>
+        <v>1.221407593283004</v>
       </c>
       <c r="C22">
-        <v>0.06666224522112429</v>
+        <v>0.2191617400539769</v>
       </c>
       <c r="D22">
-        <v>0.03520800262607082</v>
+        <v>0.06595867732377059</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8420736561632509</v>
+        <v>0.9291823269736597</v>
       </c>
       <c r="G22">
-        <v>0.6762074606475466</v>
+        <v>0.7808498468126572</v>
       </c>
       <c r="H22">
-        <v>0.7368317848238775</v>
+        <v>0.4658441674337297</v>
       </c>
       <c r="I22">
-        <v>0.5947633226110725</v>
+        <v>0.434879764446066</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4213473602574425</v>
+        <v>1.368903149503382</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.468349836623418</v>
+        <v>5.637686312192116</v>
       </c>
       <c r="N22">
-        <v>1.446882032905187</v>
+        <v>0.5414843842801886</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3759558053732803</v>
+        <v>1.176388779750226</v>
       </c>
       <c r="C23">
-        <v>0.06433013092815543</v>
+        <v>0.2112364971477376</v>
       </c>
       <c r="D23">
-        <v>0.0345759502087688</v>
+        <v>0.0643218431728414</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8373347579000523</v>
+        <v>0.9014983244090189</v>
       </c>
       <c r="G23">
-        <v>0.6723454478350845</v>
+        <v>0.7574497409222971</v>
       </c>
       <c r="H23">
-        <v>0.7365449811616571</v>
+        <v>0.4578379811838573</v>
       </c>
       <c r="I23">
-        <v>0.5943015506327285</v>
+        <v>0.4266696893939042</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4065963123435949</v>
+        <v>1.318574820898448</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.418411058880139</v>
+        <v>5.360353103270612</v>
       </c>
       <c r="N23">
-        <v>1.45297689320634</v>
+        <v>0.5562128798322163</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3261532206776678</v>
+        <v>1.006541109508674</v>
       </c>
       <c r="C24">
-        <v>0.05547567173474022</v>
+        <v>0.1813845628773976</v>
       </c>
       <c r="D24">
-        <v>0.03216200990868856</v>
+        <v>0.05804222450752405</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.82024166034968</v>
+        <v>0.8009851846848477</v>
       </c>
       <c r="G24">
-        <v>0.6584739581439436</v>
+        <v>0.673154711379965</v>
       </c>
       <c r="H24">
-        <v>0.7360449697374776</v>
+        <v>0.4296367916810908</v>
       </c>
       <c r="I24">
-        <v>0.5931132201782177</v>
+        <v>0.3980254504411391</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.35071447107822</v>
+        <v>1.12874213270706</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.230693197072497</v>
+        <v>4.38035263240188</v>
       </c>
       <c r="N24">
-        <v>1.477045971076102</v>
+        <v>0.6151792841945323</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2724953414233653</v>
+        <v>0.8244697060997623</v>
       </c>
       <c r="C25">
-        <v>0.04587893463359194</v>
+        <v>0.1494631434199079</v>
       </c>
       <c r="D25">
-        <v>0.02951620108433417</v>
+        <v>0.05113276381534604</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8036238562255562</v>
+        <v>0.7002810895092608</v>
       </c>
       <c r="G25">
-        <v>0.6451148922903371</v>
+        <v>0.5898767376255307</v>
       </c>
       <c r="H25">
-        <v>0.736756624674868</v>
+        <v>0.4031060753476794</v>
       </c>
       <c r="I25">
-        <v>0.5930243520121223</v>
+        <v>0.3715586993692881</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2904203632715223</v>
+        <v>0.9253230275343469</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.030972969002676</v>
+        <v>3.427378316741425</v>
       </c>
       <c r="N25">
-        <v>1.505104673851989</v>
+        <v>0.6849175642273764</v>
       </c>
       <c r="O25">
         <v>0</v>
